--- a/biology/Zoologie/Bitis_caudalis/Bitis_caudalis.xlsx
+++ b/biology/Zoologie/Bitis_caudalis/Bitis_caudalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bitis caudalis, la Vipère à cornes d'Afrique du Sud, est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis caudalis, la Vipère à cornes d'Afrique du Sud, est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Afrique du Sud ;
 au Zimbabwe ;
 au Botswana ;
@@ -547,12 +561,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette vipère est assez trapue, et atteint 30 à 40 cm, le plus grand spécimen examiné atteignant 51,5 cm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette vipère est assez trapue, et atteint 30 à 40 cm, le plus grand spécimen examiné atteignant 51,5 cm.
 Elle vit dans les zones semi-arides et semi-désertiques d'Afrique.
 Elle donne naissance à des petits vivants (voir ovoviviparité).
-Cette vipère est venimeuse. Son venin est hémotoxique[3].
+Cette vipère est venimeuse. Son venin est hémotoxique.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith, 1839 : Illustrations of the Zoology of South Africa; Consisting Chiefly of Figures and Descriptions of the Objects of Natural History Collected during an Expedition into the Interior of South Africa, in the Years 1834, 1835, and 1836. London: Smith, Elder, &amp; Co.</t>
         </is>
